--- a/AAII_Financials/Yearly/GMALY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GMALY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1897500</v>
+        <v>1855300</v>
       </c>
       <c r="E8" s="3">
-        <v>916800</v>
+        <v>896400</v>
       </c>
       <c r="F8" s="3">
-        <v>998900</v>
+        <v>976700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1457200</v>
+        <v>1424800</v>
       </c>
       <c r="E9" s="3">
-        <v>882500</v>
+        <v>862900</v>
       </c>
       <c r="F9" s="3">
-        <v>1021100</v>
+        <v>998500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>440300</v>
+        <v>430500</v>
       </c>
       <c r="E10" s="3">
-        <v>34300</v>
+        <v>33500</v>
       </c>
       <c r="F10" s="3">
-        <v>-22300</v>
+        <v>-21800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>80500</v>
+        <v>78700</v>
       </c>
       <c r="E14" s="3">
-        <v>50400</v>
+        <v>49300</v>
       </c>
       <c r="F14" s="3">
-        <v>130300</v>
+        <v>127400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1807500</v>
+        <v>1767400</v>
       </c>
       <c r="E17" s="3">
-        <v>1045200</v>
+        <v>1022000</v>
       </c>
       <c r="F17" s="3">
-        <v>1334200</v>
+        <v>1304600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>89900</v>
+        <v>87900</v>
       </c>
       <c r="E18" s="3">
-        <v>-128400</v>
+        <v>-125500</v>
       </c>
       <c r="F18" s="3">
-        <v>-335400</v>
+        <v>-327900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50100</v>
+        <v>-49000</v>
       </c>
       <c r="E20" s="3">
-        <v>-53800</v>
+        <v>-52600</v>
       </c>
       <c r="F20" s="3">
-        <v>-67700</v>
+        <v>-66200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313900</v>
+        <v>306100</v>
       </c>
       <c r="E21" s="3">
-        <v>62600</v>
+        <v>60500</v>
       </c>
       <c r="F21" s="3">
-        <v>-155500</v>
+        <v>-152800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115300</v>
+        <v>112800</v>
       </c>
       <c r="E22" s="3">
-        <v>71000</v>
+        <v>69400</v>
       </c>
       <c r="F22" s="3">
-        <v>68400</v>
+        <v>66900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-75500</v>
+        <v>-73800</v>
       </c>
       <c r="E23" s="3">
-        <v>-253100</v>
+        <v>-247500</v>
       </c>
       <c r="F23" s="3">
-        <v>-471400</v>
+        <v>-461000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71700</v>
+        <v>70100</v>
       </c>
       <c r="E24" s="3">
-        <v>-21300</v>
+        <v>-20900</v>
       </c>
       <c r="F24" s="3">
-        <v>49400</v>
+        <v>48300</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-147200</v>
+        <v>-143900</v>
       </c>
       <c r="E26" s="3">
-        <v>-231800</v>
+        <v>-226700</v>
       </c>
       <c r="F26" s="3">
-        <v>-520900</v>
+        <v>-509300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-114700</v>
+        <v>-112100</v>
       </c>
       <c r="E27" s="3">
-        <v>-208800</v>
+        <v>-204200</v>
       </c>
       <c r="F27" s="3">
-        <v>-499300</v>
+        <v>-488200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50100</v>
+        <v>49000</v>
       </c>
       <c r="E32" s="3">
-        <v>53800</v>
+        <v>52600</v>
       </c>
       <c r="F32" s="3">
-        <v>67700</v>
+        <v>66200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-114700</v>
+        <v>-112100</v>
       </c>
       <c r="E33" s="3">
-        <v>-208800</v>
+        <v>-204200</v>
       </c>
       <c r="F33" s="3">
-        <v>-499300</v>
+        <v>-488200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-114700</v>
+        <v>-112100</v>
       </c>
       <c r="E35" s="3">
-        <v>-208800</v>
+        <v>-204200</v>
       </c>
       <c r="F35" s="3">
-        <v>-499300</v>
+        <v>-488200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>560900</v>
+        <v>548400</v>
       </c>
       <c r="E41" s="3">
-        <v>987800</v>
+        <v>965900</v>
       </c>
       <c r="F41" s="3">
-        <v>539000</v>
+        <v>527000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110600</v>
+        <v>108100</v>
       </c>
       <c r="E42" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="F42" s="3">
-        <v>88500</v>
+        <v>86500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>84300</v>
+        <v>82500</v>
       </c>
       <c r="E43" s="3">
-        <v>123800</v>
+        <v>121100</v>
       </c>
       <c r="F43" s="3">
-        <v>82200</v>
+        <v>80300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33200</v>
+        <v>32500</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>27300</v>
       </c>
       <c r="F44" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48500</v>
+        <v>47400</v>
       </c>
       <c r="E45" s="3">
-        <v>43300</v>
+        <v>42300</v>
       </c>
       <c r="F45" s="3">
-        <v>138100</v>
+        <v>135000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>837500</v>
+        <v>818900</v>
       </c>
       <c r="E46" s="3">
-        <v>1218800</v>
+        <v>1191700</v>
       </c>
       <c r="F46" s="3">
-        <v>874400</v>
+        <v>855000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>572500</v>
+        <v>559800</v>
       </c>
       <c r="E47" s="3">
-        <v>428700</v>
+        <v>419200</v>
       </c>
       <c r="F47" s="3">
-        <v>287700</v>
+        <v>281300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3990300</v>
+        <v>3901700</v>
       </c>
       <c r="E48" s="3">
-        <v>4123200</v>
+        <v>4031600</v>
       </c>
       <c r="F48" s="3">
-        <v>4126300</v>
+        <v>4034600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900700</v>
+        <v>880700</v>
       </c>
       <c r="E49" s="3">
-        <v>922700</v>
+        <v>902200</v>
       </c>
       <c r="F49" s="3">
-        <v>936900</v>
+        <v>916100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="E52" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F52" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6314900</v>
+        <v>6174600</v>
       </c>
       <c r="E54" s="3">
-        <v>6707300</v>
+        <v>6558300</v>
       </c>
       <c r="F54" s="3">
-        <v>6239000</v>
+        <v>6100400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>115400</v>
+        <v>112900</v>
       </c>
       <c r="E57" s="3">
-        <v>105600</v>
+        <v>103200</v>
       </c>
       <c r="F57" s="3">
-        <v>100200</v>
+        <v>98000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>214800</v>
+        <v>210000</v>
       </c>
       <c r="E58" s="3">
-        <v>108000</v>
+        <v>105600</v>
       </c>
       <c r="F58" s="3">
-        <v>102200</v>
+        <v>99900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>496500</v>
+        <v>485500</v>
       </c>
       <c r="E59" s="3">
-        <v>458200</v>
+        <v>448100</v>
       </c>
       <c r="F59" s="3">
-        <v>454300</v>
+        <v>444200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>826700</v>
+        <v>808400</v>
       </c>
       <c r="E60" s="3">
-        <v>671800</v>
+        <v>656900</v>
       </c>
       <c r="F60" s="3">
-        <v>656800</v>
+        <v>642200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2630400</v>
+        <v>2572000</v>
       </c>
       <c r="E61" s="3">
-        <v>2932700</v>
+        <v>2867600</v>
       </c>
       <c r="F61" s="3">
-        <v>2156000</v>
+        <v>2108100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>226600</v>
+        <v>221600</v>
       </c>
       <c r="E62" s="3">
-        <v>179800</v>
+        <v>175800</v>
       </c>
       <c r="F62" s="3">
-        <v>228000</v>
+        <v>222900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3527900</v>
+        <v>3449500</v>
       </c>
       <c r="E66" s="3">
-        <v>3667100</v>
+        <v>3585700</v>
       </c>
       <c r="F66" s="3">
-        <v>2950100</v>
+        <v>2884500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2194700</v>
+        <v>2146000</v>
       </c>
       <c r="E72" s="3">
-        <v>2497400</v>
+        <v>2441900</v>
       </c>
       <c r="F72" s="3">
-        <v>2807600</v>
+        <v>2745200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2787000</v>
+        <v>2725100</v>
       </c>
       <c r="E76" s="3">
-        <v>3040200</v>
+        <v>2972600</v>
       </c>
       <c r="F76" s="3">
-        <v>3288900</v>
+        <v>3215900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-114700</v>
+        <v>-112100</v>
       </c>
       <c r="E81" s="3">
-        <v>-208800</v>
+        <v>-204200</v>
       </c>
       <c r="F81" s="3">
-        <v>-499300</v>
+        <v>-488200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>273200</v>
+        <v>267200</v>
       </c>
       <c r="E83" s="3">
-        <v>244000</v>
+        <v>238600</v>
       </c>
       <c r="F83" s="3">
-        <v>246700</v>
+        <v>241300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>521200</v>
+        <v>509600</v>
       </c>
       <c r="E89" s="3">
-        <v>103900</v>
+        <v>101600</v>
       </c>
       <c r="F89" s="3">
-        <v>-106100</v>
+        <v>-103800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-144000</v>
+        <v>-140800</v>
       </c>
       <c r="E91" s="3">
-        <v>-190700</v>
+        <v>-186500</v>
       </c>
       <c r="F91" s="3">
-        <v>-236100</v>
+        <v>-230900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-250000</v>
+        <v>-244500</v>
       </c>
       <c r="E94" s="3">
-        <v>-132500</v>
+        <v>-129500</v>
       </c>
       <c r="F94" s="3">
-        <v>-282500</v>
+        <v>-276200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-187200</v>
+        <v>-183000</v>
       </c>
       <c r="E96" s="3">
-        <v>-105900</v>
+        <v>-103600</v>
       </c>
       <c r="F96" s="3">
-        <v>-249200</v>
+        <v>-243700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-631300</v>
+        <v>-617300</v>
       </c>
       <c r="E100" s="3">
-        <v>502600</v>
+        <v>491400</v>
       </c>
       <c r="F100" s="3">
-        <v>-495300</v>
+        <v>-484300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-352300</v>
+        <v>-344500</v>
       </c>
       <c r="E102" s="3">
-        <v>482600</v>
+        <v>471900</v>
       </c>
       <c r="F102" s="3">
-        <v>-887400</v>
+        <v>-867700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GMALY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GMALY_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1855300</v>
+        <v>1836300</v>
       </c>
       <c r="E8" s="3">
-        <v>896400</v>
+        <v>887200</v>
       </c>
       <c r="F8" s="3">
-        <v>976700</v>
+        <v>966700</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1424800</v>
+        <v>1410200</v>
       </c>
       <c r="E9" s="3">
-        <v>862900</v>
+        <v>854100</v>
       </c>
       <c r="F9" s="3">
-        <v>998500</v>
+        <v>988200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>430500</v>
+        <v>426100</v>
       </c>
       <c r="E10" s="3">
-        <v>33500</v>
+        <v>33200</v>
       </c>
       <c r="F10" s="3">
-        <v>-21800</v>
+        <v>-21600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>78700</v>
+        <v>77900</v>
       </c>
       <c r="E14" s="3">
-        <v>49300</v>
+        <v>48800</v>
       </c>
       <c r="F14" s="3">
-        <v>127400</v>
+        <v>126100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1767400</v>
+        <v>1749300</v>
       </c>
       <c r="E17" s="3">
-        <v>1022000</v>
+        <v>1011500</v>
       </c>
       <c r="F17" s="3">
-        <v>1304600</v>
+        <v>1291200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87900</v>
+        <v>87000</v>
       </c>
       <c r="E18" s="3">
-        <v>-125500</v>
+        <v>-124200</v>
       </c>
       <c r="F18" s="3">
-        <v>-327900</v>
+        <v>-324600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49000</v>
+        <v>-48500</v>
       </c>
       <c r="E20" s="3">
-        <v>-52600</v>
+        <v>-52000</v>
       </c>
       <c r="F20" s="3">
-        <v>-66200</v>
+        <v>-65500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>306100</v>
+        <v>303800</v>
       </c>
       <c r="E21" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="F21" s="3">
-        <v>-152800</v>
+        <v>-150500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112800</v>
+        <v>111600</v>
       </c>
       <c r="E22" s="3">
-        <v>69400</v>
+        <v>68700</v>
       </c>
       <c r="F22" s="3">
-        <v>66900</v>
+        <v>66200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-73800</v>
+        <v>-73000</v>
       </c>
       <c r="E23" s="3">
-        <v>-247500</v>
+        <v>-245000</v>
       </c>
       <c r="F23" s="3">
-        <v>-461000</v>
+        <v>-456200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70100</v>
+        <v>69400</v>
       </c>
       <c r="E24" s="3">
-        <v>-20900</v>
+        <v>-20600</v>
       </c>
       <c r="F24" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-143900</v>
+        <v>-142500</v>
       </c>
       <c r="E26" s="3">
-        <v>-226700</v>
+        <v>-224300</v>
       </c>
       <c r="F26" s="3">
-        <v>-509300</v>
+        <v>-504100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-112100</v>
+        <v>-111000</v>
       </c>
       <c r="E27" s="3">
-        <v>-204200</v>
+        <v>-202100</v>
       </c>
       <c r="F27" s="3">
-        <v>-488200</v>
+        <v>-483200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49000</v>
+        <v>48500</v>
       </c>
       <c r="E32" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="F32" s="3">
-        <v>66200</v>
+        <v>65500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-112100</v>
+        <v>-111000</v>
       </c>
       <c r="E33" s="3">
-        <v>-204200</v>
+        <v>-202100</v>
       </c>
       <c r="F33" s="3">
-        <v>-488200</v>
+        <v>-483200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-112100</v>
+        <v>-111000</v>
       </c>
       <c r="E35" s="3">
-        <v>-204200</v>
+        <v>-202100</v>
       </c>
       <c r="F35" s="3">
-        <v>-488200</v>
+        <v>-483200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>548400</v>
+        <v>542800</v>
       </c>
       <c r="E41" s="3">
-        <v>965900</v>
+        <v>956000</v>
       </c>
       <c r="F41" s="3">
-        <v>527000</v>
+        <v>521600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108100</v>
+        <v>107000</v>
       </c>
       <c r="E42" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="F42" s="3">
-        <v>86500</v>
+        <v>85600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82500</v>
+        <v>81600</v>
       </c>
       <c r="E43" s="3">
-        <v>121100</v>
+        <v>119900</v>
       </c>
       <c r="F43" s="3">
-        <v>80300</v>
+        <v>79500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="E44" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="F44" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47400</v>
+        <v>47000</v>
       </c>
       <c r="E45" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="F45" s="3">
-        <v>135000</v>
+        <v>133600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>818900</v>
+        <v>810500</v>
       </c>
       <c r="E46" s="3">
-        <v>1191700</v>
+        <v>1179500</v>
       </c>
       <c r="F46" s="3">
-        <v>855000</v>
+        <v>846200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>559800</v>
+        <v>554100</v>
       </c>
       <c r="E47" s="3">
-        <v>419200</v>
+        <v>414900</v>
       </c>
       <c r="F47" s="3">
-        <v>281300</v>
+        <v>278400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3901700</v>
+        <v>3861700</v>
       </c>
       <c r="E48" s="3">
-        <v>4031600</v>
+        <v>3990300</v>
       </c>
       <c r="F48" s="3">
-        <v>4034600</v>
+        <v>3993300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>880700</v>
+        <v>871600</v>
       </c>
       <c r="E49" s="3">
-        <v>902200</v>
+        <v>892900</v>
       </c>
       <c r="F49" s="3">
-        <v>916100</v>
+        <v>906700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E52" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="F52" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6174600</v>
+        <v>6111300</v>
       </c>
       <c r="E54" s="3">
-        <v>6558300</v>
+        <v>6491100</v>
       </c>
       <c r="F54" s="3">
-        <v>6100400</v>
+        <v>6037900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>112900</v>
+        <v>111700</v>
       </c>
       <c r="E57" s="3">
-        <v>103200</v>
+        <v>102200</v>
       </c>
       <c r="F57" s="3">
-        <v>98000</v>
+        <v>97000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>210000</v>
+        <v>207900</v>
       </c>
       <c r="E58" s="3">
-        <v>105600</v>
+        <v>104500</v>
       </c>
       <c r="F58" s="3">
-        <v>99900</v>
+        <v>98900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>485500</v>
+        <v>480500</v>
       </c>
       <c r="E59" s="3">
-        <v>448100</v>
+        <v>443500</v>
       </c>
       <c r="F59" s="3">
-        <v>444200</v>
+        <v>439700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>808400</v>
+        <v>800100</v>
       </c>
       <c r="E60" s="3">
-        <v>656900</v>
+        <v>650200</v>
       </c>
       <c r="F60" s="3">
-        <v>642200</v>
+        <v>635600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2572000</v>
+        <v>2545600</v>
       </c>
       <c r="E61" s="3">
-        <v>2867600</v>
+        <v>2838200</v>
       </c>
       <c r="F61" s="3">
-        <v>2108100</v>
+        <v>2086500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>221600</v>
+        <v>219300</v>
       </c>
       <c r="E62" s="3">
-        <v>175800</v>
+        <v>174000</v>
       </c>
       <c r="F62" s="3">
-        <v>222900</v>
+        <v>220700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3449500</v>
+        <v>3414200</v>
       </c>
       <c r="E66" s="3">
-        <v>3585700</v>
+        <v>3548900</v>
       </c>
       <c r="F66" s="3">
-        <v>2884500</v>
+        <v>2855000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2146000</v>
+        <v>2124000</v>
       </c>
       <c r="E72" s="3">
-        <v>2441900</v>
+        <v>2416900</v>
       </c>
       <c r="F72" s="3">
-        <v>2745200</v>
+        <v>2717000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2725100</v>
+        <v>2697100</v>
       </c>
       <c r="E76" s="3">
-        <v>2972600</v>
+        <v>2942200</v>
       </c>
       <c r="F76" s="3">
-        <v>3215900</v>
+        <v>3182900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-112100</v>
+        <v>-111000</v>
       </c>
       <c r="E81" s="3">
-        <v>-204200</v>
+        <v>-202100</v>
       </c>
       <c r="F81" s="3">
-        <v>-488200</v>
+        <v>-483200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>267200</v>
+        <v>264400</v>
       </c>
       <c r="E83" s="3">
-        <v>238600</v>
+        <v>236100</v>
       </c>
       <c r="F83" s="3">
-        <v>241300</v>
+        <v>238800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>509600</v>
+        <v>504400</v>
       </c>
       <c r="E89" s="3">
-        <v>101600</v>
+        <v>100500</v>
       </c>
       <c r="F89" s="3">
-        <v>-103800</v>
+        <v>-102700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-140800</v>
+        <v>-139400</v>
       </c>
       <c r="E91" s="3">
-        <v>-186500</v>
+        <v>-184600</v>
       </c>
       <c r="F91" s="3">
-        <v>-230900</v>
+        <v>-228500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-244500</v>
+        <v>-241900</v>
       </c>
       <c r="E94" s="3">
-        <v>-129500</v>
+        <v>-128200</v>
       </c>
       <c r="F94" s="3">
-        <v>-276200</v>
+        <v>-273400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-183000</v>
+        <v>-181200</v>
       </c>
       <c r="E96" s="3">
-        <v>-103600</v>
+        <v>-102500</v>
       </c>
       <c r="F96" s="3">
-        <v>-243700</v>
+        <v>-241200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-617300</v>
+        <v>-611000</v>
       </c>
       <c r="E100" s="3">
-        <v>491400</v>
+        <v>486400</v>
       </c>
       <c r="F100" s="3">
-        <v>-484300</v>
+        <v>-479300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F101" s="3">
         <v>-3400</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-344500</v>
+        <v>-340900</v>
       </c>
       <c r="E102" s="3">
-        <v>471900</v>
+        <v>467000</v>
       </c>
       <c r="F102" s="3">
-        <v>-867700</v>
+        <v>-858800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
